--- a/module-6/Benchmark_Results.xlsx
+++ b/module-6/Benchmark_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\METU-NCC-Computer-Architecture\documents\module-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad Yousaf\Documents\GitHub\documents\module-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DCE9C2-E519-4509-979F-D9D7A62CB2BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D6256D-9356-41F9-B5D2-12D6B88A0818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,17 +382,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>8</v>
+        <v>7.33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>8</v>
+        <v>7.66</v>
       </c>
     </row>
   </sheetData>
